--- a/fsdFsD/aGFESG_Dsfdf/fsdfsdf_fsSDF_ffsD/条件输入数据表.xlsx
+++ b/fsdFsD/aGFESG_Dsfdf/fsdfsdf_fsSDF_ffsD/条件输入数据表.xlsx
@@ -1880,9 +1880,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1947,7 +1947,7 @@
       <c r="C2" s="35" t="inlineStr"/>
       <c r="D2" s="16" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
